--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/28_Edirne_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/28_Edirne_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78740228-9B1F-4A96-8BA8-B4E0D68DB2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{349D29B4-9AB7-446D-9914-5FE7443C40B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{93D7624A-C0CE-449F-990C-2E723DBA4A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{C146777F-7EC8-46C3-9681-4EC080598D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,14 +953,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{5C64D110-D1AC-4A84-B2B4-DAF185261668}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F576A970-AEF0-439A-81FB-C25452CBDE98}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{9FABC5EF-CF58-4AC8-9EC6-27957CA72104}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{4FA1B56E-7C54-4604-AFCE-CBD89DF95FD7}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{BA93046E-FB68-40BC-AF5A-758835698A3C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{35B6A484-100A-42CA-8F0B-EEA820A8D196}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{9C8B2E53-BF2F-478A-A5B2-383DE2FC5169}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B4B0E440-07D2-4880-9CF5-5C184F1E65CE}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{32E619C3-2881-49D2-9355-84E537ADF22B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8FE6BD47-14D9-4E73-9DD9-D2DA2ED95D1C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C8B60CCF-C9C6-451C-8F11-BE3599FB2A7E}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{1EA1E256-68BF-48DC-9E54-2DB3D3E7F2EB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{386A8D4A-3B91-4B04-A17C-96B67A3AEB0F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{EFF12CEE-DEAD-46C8-A49E-A70EB4356B02}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{6138D856-C8F4-4A70-A014-3E83B2D64C51}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{14D37A59-A4EC-4DAA-86BD-A3CCC1978EE4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D714B9-F699-4D31-9CDA-FCE6F8B548F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7D31DB-DF60-4F81-9BF4-1E073F1EF5AA}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2600,18 +2600,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89F14A92-8141-4DD3-832B-1E31AABB20C4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE3C057C-46D1-439B-99B2-639BCA968283}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BAAB32B8-BA8B-4876-A1FF-984A940233C3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E85D587-775B-4AB6-B38F-19E37E20DE66}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D1F51F7A-8255-4084-9257-015073FEFDBF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{54250D19-487B-4DE3-8DB2-04D6019B122B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E486EBA-D431-48D7-8A1D-37FAD4F19AAF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{345B0716-4DEA-4ECC-B2EF-B8C878971C0D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFF6044F-D3C7-4DBD-84F0-C07A350718A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B57FF0A9-5F6F-4354-A248-8798B8EC9669}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB20E66C-72E6-4A54-B2AB-68DB1909D7EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F325CB51-7750-4CA2-9250-E8E535D15211}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{635CEFE7-501B-4DDE-B2B6-C7AA622AACF9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D7E52C1-CF6B-4899-8428-17D587D5D5D4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{41677B8C-DDB7-4635-92B8-6505142445B1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F9D7800-B690-422C-A853-10281313CF07}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AC88A481-D912-45D8-9AC4-678D51165021}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6BAAD10-2AD1-4505-9CC8-B739A489136F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CAB7641-4BDE-4D0F-B14B-787BE649406D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{66D9AD8D-576F-46B4-B3F1-A3F1496AB1F2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B68663B-10D1-4A8B-9C7B-FA1B1533E81E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6AE50F94-4EDF-4351-8C45-5EEF4FC3A420}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21AA294B-7A8C-4D8A-B849-7F090F640B4B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70B61A62-87D9-4ECF-8DE7-764F06C669F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2624,7 +2624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096CEA28-10D0-4AA2-83CF-0F456F907B05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7725F2-C2C0-47F2-95A9-3F053A3E8CF4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3879,18 +3879,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96B7D6EC-1FAB-4C35-ABAD-BE24558BCC87}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22DCFB53-511F-4BF2-9DD7-A13A22CE4ED4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{22D6F05E-33B7-4731-BB8B-7CB3B319B93B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DAC8D090-242F-4E35-B5F2-5109CE155F2B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BA8C46C6-624F-422A-975B-57F003A53937}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1EDCF76B-1B2C-40B2-997E-CF8F47E3C0C0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7544174E-AF44-439E-9B03-2746D0CCAC81}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{969D69D0-2B63-4AEC-B8A8-2365B100032C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EC8A69D-40EE-4979-AC11-E560CABB22B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F397370F-468D-4586-9379-83DF3114208C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35FFBB20-162B-436A-8B34-20711C1C03AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6EF9879-D464-49CF-81A6-AB0B3F5B34E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AC22F74-5BB7-4CF4-BCDC-ED81530803E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3E5D053-6200-4CD4-8A48-D302839AF026}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{76FD1FC5-9CF9-493D-91E5-E36508D958F4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D450D678-602A-4E75-AD28-3D7DA80B2F54}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2410624B-3D6D-48A3-B75A-79C4AC1E7517}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99881753-1437-4AB8-A7CE-307A6153004E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF6500EB-F617-4818-A2D8-8189A12D5C2A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E9D4C9A2-3983-46A8-8EA1-28A4AB167B55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5BE8A8F-8199-426A-B4E4-C08EACECA7F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C77A052B-3CA3-48DB-99F3-A9ADD4EFDBFB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30A2E6CA-40F6-4962-AAD9-F70F825280C6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3156E28E-97C4-4ED2-921C-A7D8050612BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3903,7 +3903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B43787-5519-48D5-8DFE-2E651D1CA41A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D56BA6-13F3-4914-9A2A-98C2703B4702}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5154,18 +5154,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA9A8DA1-92DE-427D-8FF6-2C5F8C563587}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27C77B2A-190C-4127-A8B9-10AFFFCB5373}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{09C08C52-D22F-4898-80D7-8E54FA6064DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04583597-FDDF-40D4-BDEB-E468F18CF8D5}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{13DCEC90-5AF6-46CF-842E-58D683E1DAA2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26DD4882-050B-4EC7-AC3C-7EE028B9C23D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D7B5B23-F416-4CD2-A281-6DF76AAB9FC7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28E71E3A-FB10-418D-BBB3-A5B1D22324E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4332FF3A-A50C-41C5-A7E6-8B1E8AA44DF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C46C9C8F-7FCC-44AF-AC6E-39AA6E7B733E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{897011E1-2575-4023-B654-761A8110B649}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9660EDDD-F81D-461E-A156-EFDD5719CFEC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F1FB005-5015-4896-B198-A830C7263E4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45EA48D8-29CB-41AF-BF87-CEA7CE0CAE93}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A819DDE-3A5C-44AE-B877-E3DC233E76F7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE523872-EC4E-4009-8F59-188139FAB89D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F7796FE9-5C9B-44BA-8CDC-3FBE6F944D68}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75E4ED0E-A404-47FE-94CD-F90CC3DA8E7F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{677E89C7-E75B-4150-8D96-E3F7AB7EC75E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DA43DD5A-9B1D-4A2E-9EDE-111F28978189}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19E54A5A-B48D-482E-AE46-87CCB5ACBF26}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CC0C94D-7AAB-4E8B-A3D2-A6B9AE4798D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36CFD138-6696-40FF-B8F7-190233CB03FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A183CE7F-9F90-4742-B90D-D7D051C129A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5178,7 +5178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA1683D-7F21-478F-B8D9-A16B5A3A2C37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18B98E4-BACB-4DAE-83E4-394E5C3C44E7}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6426,18 +6426,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D60C6D93-0474-4C14-806A-DAA24D921433}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5063259-A9BE-4997-8A47-E22009A7DD8B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CB762854-4B3C-465B-8D9B-27D21C2A83A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{928F7D50-BB0A-4BBC-9C60-736A2B2C959E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AA2AA031-1834-4619-850A-46678C0C524C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06B342A5-E8F4-4542-8CBF-B07480FEAB61}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB3D6390-6166-427C-844C-0F866E0AB551}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{839C000B-BED1-432F-8BC9-AF41377693C3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D64E0EE9-E62C-4534-9816-E0422E05D193}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1B99B52-2DE4-4C2A-9B4D-6A853170A121}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F63DB096-6D5F-4589-BE14-F34149D775DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{72523C45-960B-4353-A78A-4B6066220F90}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F622E9C-7511-4FDC-9AAC-16D0CEC7F876}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{209E4D0D-D1C2-4B3C-BACB-54E69FFA22A3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6097C21E-792B-4518-9D3A-644AFF72CF4D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5B8B41D6-F24C-43FC-8566-7C15BA0658DD}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9196711E-9BF1-43A8-AEEA-F3BD99382DC5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF9AB44D-3AA9-4E3F-A12E-04E4DE33550B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1DD7BD6D-EAED-403A-9A80-12A91AB598E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{422C7858-82F6-45BD-9A35-4F9329918C2E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84E25EDF-2687-4057-AF45-3F85477B8AF6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E587403-BFCA-497E-8EB1-2AF53B4E9579}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0CB09FA7-1BDF-4022-AC2A-67E08B401657}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02D489E0-3F8E-4FB1-9203-7A8B602C7622}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6450,7 +6450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1B5084-952B-4FC0-8D9D-7359B0D92FD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848ACFC1-3275-48A1-BD5E-ACCDCD1DAA01}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7717,18 +7717,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56F8557B-0047-4DAC-9BCF-820908EE4D1C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25C19F01-37D1-4150-8F5C-D5899A826611}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7688029C-EA7A-42DF-9601-6DCA1B9B08A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A06C7E1-E321-4959-AF3E-F81D85F2B5B0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D37A15CA-0BDA-4D50-8A2C-CE41B969075E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08AD81D6-A3BA-4F74-A91A-78D24E9BF0E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8A07FA2-704D-491D-B317-4BE3A6FE37AC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{229171F9-5FBF-4D70-A588-13D5B2756B37}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{001BC8FA-67FC-4AFE-9DC3-5AF1BDE492BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C70DD4F-BAF6-4574-918F-EB9201629EAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1232186-0B19-48B6-B1AB-5B5380DE24E9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F8D3310B-E1CD-4CA1-A0A3-B27DC2876A37}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5324F443-3D81-4D32-8607-EBCFDA7A62F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27A5273D-542C-4CA5-957B-29DF956D0745}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1B34866D-E2F8-412B-8926-5F46EBE062C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4CB98E1A-12A0-43E2-B203-A7B569D18C48}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6210A331-2B18-42EF-BCB3-BD797D87349D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDFE1C77-8B43-4FD7-967B-5628FCD2713D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D829FD6-EA3D-4200-BB51-2A1B539418C4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5A01D2DC-59E5-4C1A-BF3D-65D39B208C7C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE312606-C6A3-4F1B-AA71-DB1F3F4661E7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C74C945-7E8F-4DFD-86C7-7D6B80B3F9B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E74CD91-31DB-48FA-8548-F90D95F865E8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3FF18310-D08B-4485-B197-CF1218E1577E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7741,7 +7741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AB1FD8-AC32-4C64-B0C0-EF35C3635DAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841F10D4-639D-4181-B68F-E84D27C3603F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9008,18 +9008,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A11893DC-DD95-44A2-81FF-F473747288D9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{772C888F-5D2C-42CE-8626-B6DFAD0D1A8D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D526EAD6-70A5-4A0C-90B9-E8050569A44B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4B48641-82F4-4BBA-A63F-A42756AD8C1A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F7FAD6E0-BB97-456D-BCF9-5C2F62034D5D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E709FA39-9B0A-49DE-B066-67FE5291B682}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DD5E1C8-74C2-4994-807E-BC8EC172FB46}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73737857-F125-45F8-99A7-05C51C2EAC60}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6DF74DE3-1A16-495A-AEFA-7A867DB7228D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75CDAD09-4B94-45F9-82FE-11A1FE048DAC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BDC50DD9-0146-4D03-9D06-C7C0FBCBDFF7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F231BFD1-3F73-451E-B543-71D7103919EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CB10CBC-B82E-4C0B-968B-CD163A375C79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{393FB405-86BA-4A58-8889-05995B9CA9C6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF982E9E-1710-40FE-AA5B-ACA835CB5B0B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4D26153-E7F3-43D8-A1A4-48C45C55534C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{79B0DDB1-A1F0-4FE6-BAC0-AC301D0A89F6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{69E2ACD2-5A66-449E-9A41-D63D8EB7635A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75A426D5-3329-4BB4-A8AA-6B4B7E6205C1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F4F6ACD3-2EE9-456A-9C6A-2F2BE3305098}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BB520E5-B3AB-426D-8CA4-2508C4DADA94}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A21093D-0C06-4A33-9440-4DA67C7DAD47}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1A47C94-DF33-4F29-97BB-9F874BABA96A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D88EE3CE-BFB9-4927-950A-B4112026F22B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9032,7 +9032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DCDEB7-2B61-424B-8830-DD5114468762}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF535BB7-CC80-4E90-8113-87D00822D861}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10299,18 +10299,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{955A422A-E40D-4B12-A6AA-D4EEFC9AC4FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A9A3797-30B3-491C-9F2B-F881B81F2A6B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C6280DA1-4385-4EA5-A14A-3D70C55CB6AD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5E4BE81-B67F-4DA6-A4CC-054F6227C143}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7AA4C312-2874-4631-A202-E3C5FC1C80E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE444993-CA2E-417C-9FE4-95BE6E137215}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F40C3D6C-EC05-4078-BD9B-58B3F1BC047D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A391BAAE-992A-4721-B546-F92BE1326611}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A420D863-A673-4680-BAF4-40A9CFF68123}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{39873F6F-E659-4849-9954-099BB2C76CEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E1B3B1A-9793-4CF1-917A-5B3218C3A279}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{849BE906-E136-4672-8B1C-9BBE1C100268}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39B1AEE6-04DD-4F04-9962-3B9B7EA89544}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5C602A0-C17D-4B1C-8D77-AB960280317F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3420C36C-649F-49CB-84FD-A8B7B4D6CDAF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{64EA891C-D0FD-4E3D-9C84-C81596044767}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{00E4DCE6-4FA7-4A64-8F29-D4C031AD8D28}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA7FF92F-C151-4C17-B258-1000ACC268DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5E02282-14D0-4A71-9A43-145DE1F3D1B1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{55E77801-E711-47CC-AD70-90461EC16894}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ACE1D8D1-C6A3-48A4-8392-94FD7B00F88E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73CC0C70-223F-40E6-9459-80A35478910D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4A0DE76-1136-4F29-A979-2B4948CBB565}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED4A49E1-3BBF-4B4E-A5BF-AB2EFF1C8697}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10323,7 +10323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA936C6-F7CF-4396-9927-E8E0F6E7BC78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4916F714-DA31-4FFE-BC10-1875D6437333}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11586,18 +11586,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF8172C8-F48F-492E-806A-E0BDD2C60387}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40F1E524-2AA2-4917-9818-5EB91AB51115}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EBD3B449-5948-4D2C-9245-CD0354FF809D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4A68AD78-9B80-4285-A189-AB2606485C1A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9A4A88EE-C77C-4AF9-9B4B-1D85897982FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E993ABEB-20B9-4E69-BE36-BF9D2C631AA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15C5BA70-949A-47A6-88D8-0F969111063D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9CDB5E68-F93E-4AEF-AB50-3DA1AC64CC89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C35C4CEB-350C-450B-A8D3-7DD451A8206B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{114FB3AB-9B97-423B-ADE6-724157E25B47}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41682CA5-B483-4CAB-A641-F64F84F1FFF1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1176C474-6AB6-4077-9316-575CD1E56385}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76463804-EB92-4B39-B6D6-F8560B7EC451}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AAA789D7-E522-4066-8904-E14E8C2C393C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{18B69CCA-B5DB-4EE0-BEEA-33FBA3AAAF1F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{046ECB73-6FB1-499B-BB43-9B6066CA08CB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5297573C-FD7A-4E65-85D2-A0985221CDA4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{310A7017-258D-4252-83A6-6F72E5FF1853}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6990867-0141-48E4-8426-10467CDAA647}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1DF34B88-CE37-465F-BDA9-93CC3CBC2254}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B9E839C-A95D-4B67-A9E2-546C4C194328}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8A257A6-26BA-4491-B8E9-D19F020D643C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{776BB45C-3396-41BA-9402-38E16409EDBE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C2E9C89E-F411-43B6-9457-A4BF24D56B89}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11610,7 +11610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD60B25-9052-4102-9AA8-60EA7ACD8DC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4584E1-1489-4D5A-8C00-1AEE127142ED}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12873,18 +12873,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27D3F7F3-5EB9-49E4-A175-47220757C9BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D83007F6-3DCB-444F-AAE5-E926784871A5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B49A3B73-A179-4CFD-A59A-78BF3E35B9BF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6680EB7A-07AD-4009-96FD-137F06E28D82}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0591ECDB-6EFA-414C-97C5-4E4C4135E36D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9C15BFA-2A71-419A-B1A7-A9C4D2F23F89}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63A175FC-97D0-461B-95DD-DFFEBEFD5909}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6191A53A-9DA1-41B5-8427-E01754AB7F5B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0AA77D8A-03E8-4FC0-A59B-9B2CC4C9AE0D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{549A55C3-4EB1-4633-8A03-36DEE28FF908}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63BB578C-D6B5-476C-A991-D6A2ACE3FA64}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA6D518C-119D-480E-874B-4B5988B5FB7A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7CD8724-5A05-47F4-A70D-2F501BE7BA89}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA69FE9C-4747-45D0-B847-EA87F930A467}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F2D6861E-FBC3-4CA2-BD28-006F16B091B7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB09ED73-BFCC-4E65-A096-95C7563C9601}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DE675E3A-F98C-4A9B-82F5-FECAD643E699}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D88469B-89E4-4E86-A2C9-5602855CB2F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E4975699-E377-488D-B733-535BECA9B1B2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B8684E8B-818C-4B17-ACCB-EF90CF6B0C2B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E7656AC-6267-49FD-ADA3-4DCD0C890808}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71F831E3-C9EA-41EA-A7FC-1FA0D8F089B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87DAE185-3C70-40FC-BE90-D5B298D34CA6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BAFA21ED-F41F-4CB9-A312-97818501E30E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12897,7 +12897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969A571A-A72C-46E8-B787-FD85454D844B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA7C507-A5F8-4219-90F5-B62341DACE9F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14160,18 +14160,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{174CCD9F-CA3A-444C-992E-632D6A9DA39C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5129119E-6F9A-4057-96C2-07E0FCF420D7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F2633593-A1C2-46EF-B6F9-8410F4BD7ADD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3F15C4D-F23A-4B5A-BBE0-DBD074EADD65}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3AEDC232-6179-4170-BCCB-3BCD776C26A9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36D2A3E0-509B-42A5-AC82-D6F734ECE638}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B9F33ED-7499-4ADB-84C6-FD8C2D5A43CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4EEB636A-21DE-43BE-8F7E-F77475B11502}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67BAF1B4-E600-4CEF-AB16-BBD38F97973A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8468F16-7F81-449E-838B-121EBD288E03}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E9D5CAE-DF18-4DC8-A2B0-B8C663C4100A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ACBC9761-8267-4117-8108-C3550E4C70E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61DD5B26-BA9E-4367-878F-6BB8298FCB64}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33FC4C86-CC8E-44CA-9496-A8DD770C049F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D7095820-908C-4D96-9E26-BA1361435792}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3D8CE53-CBBB-45EE-AEDE-6F94597A6480}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E0ED2539-C0F4-4A18-8C02-B8A5F9B77218}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{635AD148-A241-4753-BFA3-3CFC0AD5767F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B8FA67C-8EF4-4EF9-BEF5-173167CB43E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8ACD9E82-0355-4C00-9AFD-58958AFCFBB3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E06149E-A99B-48B2-BD58-6BAA4265934D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4881CADB-948A-4887-860B-F1643CD634F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7147F2BD-34F7-47BE-88CB-53F94E8CB51C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B66A0177-D95E-4525-BA83-5B6219F6DA5B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14184,7 +14184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F1DCD2-7BDD-4E1F-B170-A7D54214B1B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152DED90-8323-4FB6-95EE-5749D2B9573B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15447,18 +15447,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BAA1C8D4-E5E1-41E9-9AD3-664BAF6E3619}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E1F20EF-3A2D-44D3-B9E6-634D7DAF8BC4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F1B360B6-7A4D-4979-9F08-CAF6854286C9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C7FD581E-663C-4DA7-8CC5-DB4CA9DA8CCE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{43CBC80D-9A14-4A0E-A616-6B8F9DA142AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C643A92-4ADE-4B67-A945-569AC6B4C7BC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77947443-9492-409B-9B58-DEC7E1382A6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D7B1768-39DB-48DA-AEBA-C60E9B2F4D85}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{449CD972-DEEE-49D0-A29A-5AA8B18D1BC1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1761DD6-7C14-46E4-A9CD-039E58F1D254}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4B840AE-024B-47BA-84CE-225CCEA7DAF8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8DC518BD-45BA-4759-8E91-98DD80927775}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF645A8D-928D-4BEB-B558-8239774F436C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0CF1B606-8BD9-468C-AFB7-40907EA97315}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0F0D6244-4616-4081-AE01-B642EAFD3B86}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30BD2FAA-1DCC-4258-8FA1-ACF5F1BEFAB1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{79219DA4-9D57-4F83-99CC-8AAD64D9AADD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29A1F9A4-0774-49DE-A2AC-7372AF3F0FFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78A4189D-04CE-42B7-8453-0061CF85C561}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B49676E6-373C-467D-81AE-B042A3B06007}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0575BB0D-E103-4441-89D4-BFA403055119}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A3C0D90-E086-45C3-90B1-611D320AB9F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EF1C110-95E7-4559-AEB4-93E89C96B8FC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E31F6E42-F34E-481C-80F7-E3166CA5C413}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15471,7 +15471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105D2138-7C09-4A4D-BBD8-2AEFEEE9C26B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A26671-BA7D-4F32-B59A-E73F76E6CF2A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16734,18 +16734,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B7FAD6E-49F6-4C52-A5E1-167576B802FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09D0F141-6AC8-4D21-AD60-162CE9C3E06F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9CB85D43-EA85-404F-98C4-037F11E67AB7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19C879FC-41B1-47E8-A9CA-453C138D2729}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B67A17D5-9660-4FD6-B4CA-8A869D9C70A5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA4C0758-A139-4E3D-A07D-372165732556}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B8B1342-DF5C-442D-978F-DD714D1EF290}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C0B360A8-0D15-4891-8DE5-4951B38A5CC2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{769808BA-6312-473F-A18D-AF5F6FE324DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78B37BA1-8518-49E5-AA4F-8DAD3061D9FE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D15EA38-C066-4AD6-8174-1C2F4BAD9736}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22D7785C-7030-45DD-A63F-72C656D754DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80F61C02-7B6D-4EF1-A8E3-78BBB80598B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6CB97FF-8F9D-498E-83C7-DBF76557243C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F10D5679-ABCC-4D66-BE4D-2CE37D0D0617}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8F021CF3-451A-453E-8BC4-4B4791B06B32}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{080044D6-B16A-4BA1-8920-ABF6F170C98A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{554B45F3-43FE-46D4-A4AD-AFC22AD7A7AA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB1FDF98-5DA0-4C4E-B8E9-02BAD788620B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C49FEAEB-D92E-44E5-95AA-277F988A1546}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4A55FEF-BA96-4F3B-88AF-2F6E745C9E93}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5AA38D08-54EA-4C2C-B597-824D31FB999D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F686AEC-8E80-4F70-AB38-564F4BB2AC51}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E9FD928-1588-4B87-AB19-CDEA4A06C2B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
